--- a/src/test/resources/mfcr/test-invoices.xlsx
+++ b/src/test/resources/mfcr/test-invoices.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvancl\Documents\temp\opendata\src\test\resources\mfcr\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="991"/>
   </bookViews>
   <sheets>
-    <sheet name="Uhrazene_faktury_Kapitola_312_1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Uhrazene_faktury_Kapitola_312_1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Uhrazene_faktury_Kapitola_312_1!$A$1:$Z$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Uhrazene_faktury_Kapitola_312_1!$A$1:$Z$9919</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Uhrazene_faktury_Kapitola_312_1!$A$1:$Z$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Uhrazene_faktury_Kapitola_312_1!$A$1:$Z$9919</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Uhrazene_faktury_Kapitola_312_1!$A$1:$Z$48</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="0">Uhrazene_faktury_Kapitola_312_1!$A$1:$Z$9910</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Uhrazene_faktury_Kapitola_312_1!$A$1:$Z$9910</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -263,7 +266,7 @@
     <t>07280-01</t>
   </si>
   <si>
-    <t>Obnova 1 ks CCS karty ke služ. vozidlu - AKT 27-11 </t>
+    <t>Obnova 1 ks CCS karty ke služ. vozidlu - AKT 27-11</t>
   </si>
   <si>
     <t>Generální finanční ředitelství</t>
@@ -500,33 +503,17 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="M/D/YYYY\ H:MM"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -538,7 +525,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -546,100 +533,329 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
+  <a:themeElements>
+    <a:clrScheme name="Kancelář">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Kancelář">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Kancelář">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2591093117409"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.6801619433198"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8016194331984"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.6558704453441"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.4331983805668"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.5627530364372"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.9433198380567"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.5951417004049"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="27.2307692307692"/>
-    <col collapsed="false" hidden="false" max="14" min="13" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.9433198380567"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="16.753036437247"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="16.0971659919028"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.9311740890688"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="57.4372469635628"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="26.3522267206478"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="26.6801619433198"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="8.5748987854251"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="41.4534412955466"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="39.3562753036437"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="8.5748987854251"/>
+    <col min="1" max="1" width="25.21875"/>
+    <col min="2" max="2" width="23.21875"/>
+    <col min="3" max="3" width="26.6640625"/>
+    <col min="4" max="4" width="24.77734375"/>
+    <col min="5" max="5" width="16.5546875"/>
+    <col min="6" max="6" width="29.6640625"/>
+    <col min="7" max="7" width="15.44140625"/>
+    <col min="8" max="8" width="13.5546875"/>
+    <col min="9" max="9" width="8.5546875"/>
+    <col min="10" max="10" width="20.88671875"/>
+    <col min="11" max="11" width="23.5546875"/>
+    <col min="12" max="12" width="27.21875"/>
+    <col min="13" max="14" width="8.5546875"/>
+    <col min="15" max="15" width="20.88671875"/>
+    <col min="16" max="16" width="16.77734375"/>
+    <col min="17" max="17" width="16.109375"/>
+    <col min="18" max="18" width="22.88671875"/>
+    <col min="19" max="19" width="57.44140625"/>
+    <col min="20" max="20" width="26.33203125"/>
+    <col min="21" max="21" width="26.6640625"/>
+    <col min="22" max="22" width="8.5546875"/>
+    <col min="23" max="23" width="41.44140625"/>
+    <col min="24" max="24" width="39.33203125"/>
+    <col min="25" max="1025" width="8.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,3566 +935,3559 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>1400004003</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2">
         <v>26692392</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2">
         <v>631141596</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2">
         <v>631141596</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2">
         <v>806313.75</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2">
         <v>806313.75</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2">
         <v>806313.75</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="2" t="n">
+      <c r="N2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="2">
         <v>41934</v>
       </c>
-      <c r="P2" s="2" t="n">
-        <v>41939.4569444444</v>
-      </c>
-      <c r="Q2" s="2" t="n">
+      <c r="P2" s="2">
+        <v>41939.456944444399</v>
+      </c>
+      <c r="Q2" s="2">
         <v>41955</v>
       </c>
-      <c r="R2" s="2" t="n">
+      <c r="R2" s="2">
         <v>42060</v>
       </c>
-      <c r="S2" s="0" t="s">
+      <c r="S2" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="T2">
         <v>806313.75</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="U2">
         <v>806313.75</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="V2">
         <v>5166</v>
       </c>
-      <c r="W2" s="0" t="s">
+      <c r="W2" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="X2">
         <v>806313.75</v>
       </c>
-      <c r="Y2" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z2" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="Y2">
+        <v>312</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>1400004866</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3">
         <v>1279</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3">
         <v>2402323</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3">
         <v>2402323</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3">
         <v>2075707.81</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3">
         <v>2075707.81</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3">
         <v>2075707.81</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="2" t="n">
+      <c r="N3" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="2">
         <v>41978</v>
       </c>
-      <c r="P3" s="2" t="n">
-        <v>41983.7222222222</v>
-      </c>
-      <c r="Q3" s="2" t="n">
+      <c r="P3" s="2">
+        <v>41983.722222222197</v>
+      </c>
+      <c r="Q3" s="2">
         <v>41999</v>
       </c>
-      <c r="R3" s="2" t="n">
+      <c r="R3" s="2">
         <v>42054</v>
       </c>
-      <c r="S3" s="0" t="s">
+      <c r="S3" t="s">
         <v>37</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="T3">
         <v>2075707.81</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="U3">
         <v>2075707.81</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="V3">
         <v>5168</v>
       </c>
-      <c r="W3" s="0" t="s">
+      <c r="W3" t="s">
         <v>38</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="X3">
         <v>2075707.81</v>
       </c>
-      <c r="Y3" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z3" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="Y3">
+        <v>312</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>1400005085</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4">
         <v>48592439</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4">
         <v>1740000168</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4">
         <v>4971</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4">
         <v>4971</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4">
         <v>4971</v>
       </c>
-      <c r="N4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="2" t="n">
+      <c r="N4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="2">
         <v>41989</v>
       </c>
-      <c r="P4" s="2" t="n">
-        <v>41992.4611111111</v>
-      </c>
-      <c r="Q4" s="2" t="n">
+      <c r="P4" s="2">
+        <v>41992.461111111101</v>
+      </c>
+      <c r="Q4" s="2">
         <v>41999</v>
       </c>
-      <c r="R4" s="2" t="n">
+      <c r="R4" s="2">
         <v>42034</v>
       </c>
-      <c r="S4" s="0" t="s">
+      <c r="S4" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="T4">
         <v>4971</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="U4">
         <v>4971</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="V4">
         <v>5164</v>
       </c>
-      <c r="W4" s="0" t="s">
+      <c r="W4" t="s">
         <v>43</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="X4">
         <v>1355.2</v>
       </c>
-      <c r="Y4" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z4" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="Y4">
+        <v>312</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>1400005085</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="E5">
         <v>48592439</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5">
         <v>1740000168</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5">
         <v>4971</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5">
         <v>4971</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5">
         <v>4971</v>
       </c>
-      <c r="N5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="2" t="n">
+      <c r="N5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="2">
         <v>41989</v>
       </c>
-      <c r="P5" s="2" t="n">
-        <v>41992.4611111111</v>
-      </c>
-      <c r="Q5" s="2" t="n">
+      <c r="P5" s="2">
+        <v>41992.461111111101</v>
+      </c>
+      <c r="Q5" s="2">
         <v>41999</v>
       </c>
-      <c r="R5" s="2" t="n">
+      <c r="R5" s="2">
         <v>42034</v>
       </c>
-      <c r="S5" s="0" t="s">
+      <c r="S5" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="0" t="n">
+      <c r="T5">
         <v>4971</v>
       </c>
-      <c r="U5" s="0" t="n">
+      <c r="U5">
         <v>4971</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="V5">
         <v>5169</v>
       </c>
-      <c r="W5" s="0" t="s">
+      <c r="W5" t="s">
         <v>44</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="X5">
         <v>3615.8</v>
       </c>
-      <c r="Y5" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z5" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="Y5">
+        <v>312</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>1430000055</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="E6">
         <v>26692392</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6">
         <v>631141597</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="H6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6">
         <v>631141597</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6">
         <v>851097.26</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6">
         <v>851097.26</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6">
         <v>38121.35</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="N6" t="s">
         <v>45</v>
       </c>
-      <c r="O6" s="2" t="n">
+      <c r="O6" s="2">
         <v>41934</v>
       </c>
-      <c r="P6" s="2" t="n">
-        <v>41939.4756944444</v>
-      </c>
-      <c r="Q6" s="2" t="n">
+      <c r="P6" s="2">
+        <v>41939.475694444402</v>
+      </c>
+      <c r="Q6" s="2">
         <v>41955</v>
       </c>
-      <c r="R6" s="2" t="n">
+      <c r="R6" s="2">
         <v>42061</v>
       </c>
-      <c r="S6" s="0" t="s">
+      <c r="S6" t="s">
         <v>46</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="T6">
         <v>851097.26</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="U6">
         <v>38121.35</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="V6">
         <v>5166</v>
       </c>
-      <c r="W6" s="0" t="s">
+      <c r="W6" t="s">
         <v>33</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="X6">
         <v>975144.13</v>
       </c>
-      <c r="Y6" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z6" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="Y6">
+        <v>312</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>1500000001</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="E7">
         <v>47114983</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="H7" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7">
         <v>54010801</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7">
         <v>22642</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7">
         <v>22642</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7">
         <v>22642</v>
       </c>
-      <c r="N7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="2" t="n">
+      <c r="N7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="2">
         <v>42010</v>
       </c>
-      <c r="P7" s="2" t="n">
-        <v>42010.3229166667</v>
-      </c>
-      <c r="Q7" s="2" t="n">
+      <c r="P7" s="2">
+        <v>42010.322916666701</v>
+      </c>
+      <c r="Q7" s="2">
         <v>42013</v>
       </c>
-      <c r="R7" s="2" t="n">
+      <c r="R7" s="2">
         <v>42013</v>
       </c>
-      <c r="S7" s="0" t="s">
+      <c r="S7" t="s">
         <v>51</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="T7">
         <v>22642</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="U7">
         <v>22642</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="V7">
         <v>5161</v>
       </c>
-      <c r="W7" s="0" t="s">
+      <c r="W7" t="s">
         <v>52</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="X7">
         <v>102</v>
       </c>
-      <c r="Y7" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z7" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="Y7">
+        <v>312</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>1500000001</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="0" t="n">
+      <c r="E8">
         <v>47114983</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="H8" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8">
         <v>54010801</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8">
         <v>22642</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8">
         <v>22642</v>
       </c>
-      <c r="L8" s="0" t="n">
+      <c r="L8">
         <v>22642</v>
       </c>
-      <c r="N8" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="2" t="n">
+      <c r="N8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="2">
         <v>42010</v>
       </c>
-      <c r="P8" s="2" t="n">
-        <v>42010.3229166667</v>
-      </c>
-      <c r="Q8" s="2" t="n">
+      <c r="P8" s="2">
+        <v>42010.322916666701</v>
+      </c>
+      <c r="Q8" s="2">
         <v>42013</v>
       </c>
-      <c r="R8" s="2" t="n">
+      <c r="R8" s="2">
         <v>42013</v>
       </c>
-      <c r="S8" s="0" t="s">
+      <c r="S8" t="s">
         <v>51</v>
       </c>
-      <c r="T8" s="0" t="n">
+      <c r="T8">
         <v>22642</v>
       </c>
-      <c r="U8" s="0" t="n">
+      <c r="U8">
         <v>22642</v>
       </c>
-      <c r="V8" s="0" t="n">
+      <c r="V8">
         <v>5429</v>
       </c>
-      <c r="W8" s="0" t="s">
+      <c r="W8" t="s">
         <v>53</v>
       </c>
-      <c r="X8" s="0" t="n">
+      <c r="X8">
         <v>22540</v>
       </c>
-      <c r="Y8" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z8" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="Y8">
+        <v>312</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>1500000001</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" t="s">
         <v>54</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="E9">
         <v>28501861</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9">
         <v>218410626</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9">
         <v>218410626</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9">
         <v>2396</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9">
         <v>2396</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="L9">
         <v>2396</v>
       </c>
-      <c r="N9" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="2" t="n">
+      <c r="N9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="2">
         <v>42003</v>
       </c>
-      <c r="P9" s="2" t="n">
-        <v>42006.5861111111</v>
-      </c>
-      <c r="Q9" s="2" t="n">
+      <c r="P9" s="2">
+        <v>42006.586111111101</v>
+      </c>
+      <c r="Q9" s="2">
         <v>42024</v>
       </c>
-      <c r="R9" s="2" t="n">
+      <c r="R9" s="2">
         <v>42032</v>
       </c>
-      <c r="S9" s="0" t="s">
+      <c r="S9" t="s">
         <v>56</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="T9">
         <v>2396</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="U9">
         <v>2396</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="V9">
         <v>5169</v>
       </c>
-      <c r="W9" s="0" t="s">
+      <c r="W9" t="s">
         <v>44</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="X9">
         <v>2396</v>
       </c>
-      <c r="Y9" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z9" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="Y9">
+        <v>312</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>1500000002</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" t="s">
         <v>50</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="H10" t="s">
         <v>30</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10">
         <v>1500000002</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10">
         <v>16846</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10">
         <v>16846</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="L10">
         <v>16846</v>
       </c>
-      <c r="N10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="2" t="n">
+      <c r="N10" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="2">
         <v>42010</v>
       </c>
-      <c r="P10" s="2" t="n">
-        <v>42010.3298611111</v>
-      </c>
-      <c r="Q10" s="2" t="n">
+      <c r="P10" s="2">
+        <v>42010.329861111102</v>
+      </c>
+      <c r="Q10" s="2">
         <v>42012</v>
       </c>
-      <c r="R10" s="2" t="n">
+      <c r="R10" s="2">
         <v>42012</v>
       </c>
-      <c r="S10" s="0" t="s">
+      <c r="S10" t="s">
         <v>59</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="T10">
         <v>16846</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="U10">
         <v>16846</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="V10">
         <v>5429</v>
       </c>
-      <c r="W10" s="0" t="s">
+      <c r="W10" t="s">
         <v>53</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="X10">
         <v>16846</v>
       </c>
-      <c r="Y10" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z10" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="Y10">
+        <v>312</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>1500000002</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11">
         <v>553115</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11">
         <v>153001643</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="H11" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11">
         <v>153001643</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11">
         <v>1549234.4</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11">
         <v>1549234.4</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="L11">
         <v>1549234.4</v>
       </c>
-      <c r="N11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="2" t="n">
+      <c r="N11" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="2">
         <v>41991</v>
       </c>
-      <c r="P11" s="2" t="n">
-        <v>42006.6208333333</v>
-      </c>
-      <c r="Q11" s="2" t="n">
+      <c r="P11" s="2">
+        <v>42006.620833333298</v>
+      </c>
+      <c r="Q11" s="2">
         <v>42025</v>
       </c>
-      <c r="R11" s="2" t="n">
+      <c r="R11" s="2">
         <v>42041</v>
       </c>
-      <c r="S11" s="0" t="s">
+      <c r="S11" t="s">
         <v>62</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="T11">
         <v>1549234.4</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="U11">
         <v>1549234.4</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="V11">
         <v>5166</v>
       </c>
-      <c r="W11" s="0" t="s">
+      <c r="W11" t="s">
         <v>33</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="X11">
         <v>1549234.4</v>
       </c>
-      <c r="Y11" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z11" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="Y11">
+        <v>312</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>1500000003</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" t="s">
         <v>50</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="H12" t="s">
         <v>30</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12">
         <v>1500000003</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12">
         <v>3476</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12">
         <v>3476</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="L12">
         <v>3476</v>
       </c>
-      <c r="N12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O12" s="2" t="n">
+      <c r="N12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="2">
         <v>42010</v>
       </c>
-      <c r="P12" s="2" t="n">
-        <v>42010.33125</v>
-      </c>
-      <c r="Q12" s="2" t="n">
+      <c r="P12" s="2">
+        <v>42010.331250000003</v>
+      </c>
+      <c r="Q12" s="2">
         <v>42012</v>
       </c>
-      <c r="R12" s="2" t="n">
+      <c r="R12" s="2">
         <v>42012</v>
       </c>
-      <c r="S12" s="0" t="s">
+      <c r="S12" t="s">
         <v>65</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="T12">
         <v>3476</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="U12">
         <v>3476</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="V12">
         <v>5429</v>
       </c>
-      <c r="W12" s="0" t="s">
+      <c r="W12" t="s">
         <v>53</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="X12">
         <v>3476</v>
       </c>
-      <c r="Y12" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z12" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="Y12">
+        <v>312</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>1500000003</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" t="s">
         <v>66</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>2079682</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>201402</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="H13" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13">
         <v>201402</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13">
         <v>15791</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13">
         <v>15791</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="L13">
         <v>15791</v>
       </c>
-      <c r="N13" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="2" t="n">
+      <c r="N13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="2">
         <v>41995</v>
       </c>
-      <c r="P13" s="2" t="n">
-        <v>42006.6256944445</v>
-      </c>
-      <c r="Q13" s="2" t="n">
+      <c r="P13" s="2">
+        <v>42006.625694444498</v>
+      </c>
+      <c r="Q13" s="2">
         <v>42027</v>
       </c>
-      <c r="R13" s="2" t="n">
+      <c r="R13" s="2">
         <v>42024</v>
       </c>
-      <c r="S13" s="0" t="s">
+      <c r="S13" t="s">
         <v>68</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="T13">
         <v>15791</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="U13">
         <v>15791</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="V13">
         <v>5166</v>
       </c>
-      <c r="W13" s="0" t="s">
+      <c r="W13" t="s">
         <v>33</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="X13">
         <v>15791</v>
       </c>
-      <c r="Y13" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z13" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="Y13">
+        <v>312</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>1500000004</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="D14" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="H14" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14">
         <v>1500000004</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14">
         <v>314</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14">
         <v>314</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="L14">
         <v>314</v>
       </c>
-      <c r="N14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="2" t="n">
+      <c r="N14" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="2">
         <v>42010</v>
       </c>
-      <c r="P14" s="2" t="n">
-        <v>42010.3333333333</v>
-      </c>
-      <c r="Q14" s="2" t="n">
+      <c r="P14" s="2">
+        <v>42010.333333333299</v>
+      </c>
+      <c r="Q14" s="2">
         <v>42012</v>
       </c>
-      <c r="R14" s="2" t="n">
+      <c r="R14" s="2">
         <v>42012</v>
       </c>
-      <c r="S14" s="0" t="s">
+      <c r="S14" t="s">
         <v>71</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="T14">
         <v>314</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="U14">
         <v>314</v>
       </c>
-      <c r="V14" s="0" t="n">
+      <c r="V14">
         <v>5429</v>
       </c>
-      <c r="W14" s="0" t="s">
+      <c r="W14" t="s">
         <v>53</v>
       </c>
-      <c r="X14" s="0" t="n">
+      <c r="X14">
         <v>314</v>
       </c>
-      <c r="Y14" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z14" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="Y14">
+        <v>312</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15">
         <v>1500000004</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="D15" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="E15">
         <v>2108526</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15">
         <v>2612</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="H15" t="s">
         <v>30</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15">
         <v>2612</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15">
         <v>2000</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15">
         <v>2000</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="L15">
         <v>2000</v>
       </c>
-      <c r="N15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" s="2" t="n">
+      <c r="N15" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="2">
         <v>41995</v>
       </c>
-      <c r="P15" s="2" t="n">
+      <c r="P15" s="2">
         <v>42006.6340277778</v>
       </c>
-      <c r="Q15" s="2" t="n">
+      <c r="Q15" s="2">
         <v>42033</v>
       </c>
-      <c r="R15" s="2" t="n">
+      <c r="R15" s="2">
         <v>42024</v>
       </c>
-      <c r="S15" s="0" t="s">
+      <c r="S15" t="s">
         <v>74</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="T15">
         <v>2000</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="U15">
         <v>2000</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="V15">
         <v>5169</v>
       </c>
-      <c r="W15" s="0" t="s">
+      <c r="W15" t="s">
         <v>44</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="X15">
         <v>2000</v>
       </c>
-      <c r="Y15" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z15" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="Y15">
+        <v>312</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>1500000005</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" t="s">
         <v>76</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" t="s">
         <v>50</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16">
         <v>1500000005</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16">
         <v>5689</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16">
         <v>5689</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="L16">
         <v>5689</v>
       </c>
-      <c r="N16" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="2" t="n">
+      <c r="N16" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="2">
         <v>42010</v>
       </c>
-      <c r="P16" s="2" t="n">
-        <v>42010.3354166667</v>
-      </c>
-      <c r="Q16" s="2" t="n">
+      <c r="P16" s="2">
+        <v>42010.335416666698</v>
+      </c>
+      <c r="Q16" s="2">
         <v>42012</v>
       </c>
-      <c r="R16" s="2" t="n">
+      <c r="R16" s="2">
         <v>42012</v>
       </c>
-      <c r="S16" s="0" t="s">
+      <c r="S16" t="s">
         <v>77</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="T16">
         <v>5689</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="U16">
         <v>5689</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="V16">
         <v>5429</v>
       </c>
-      <c r="W16" s="0" t="s">
+      <c r="W16" t="s">
         <v>53</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="X16">
         <v>5689</v>
       </c>
-      <c r="Y16" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z16" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="Y16">
+        <v>312</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17">
         <v>1500000005</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="D17" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>27916693</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>4098084</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="0" t="s">
+      <c r="H17" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17">
         <v>1238602405</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17">
         <v>242</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17">
         <v>242</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="L17">
         <v>242</v>
       </c>
-      <c r="N17" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" s="2" t="n">
+      <c r="N17" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="2">
         <v>41991</v>
       </c>
-      <c r="P17" s="2" t="n">
-        <v>42006.64375</v>
-      </c>
-      <c r="Q17" s="2" t="n">
+      <c r="P17" s="2">
+        <v>42006.643750000003</v>
+      </c>
+      <c r="Q17" s="2">
         <v>42021</v>
       </c>
-      <c r="R17" s="2" t="n">
+      <c r="R17" s="2">
         <v>42018</v>
       </c>
-      <c r="S17" s="0" t="s">
+      <c r="S17" t="s">
         <v>80</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="T17">
         <v>242</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="U17">
         <v>242</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="V17">
         <v>5169</v>
       </c>
-      <c r="W17" s="0" t="s">
+      <c r="W17" t="s">
         <v>44</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="X17">
         <v>242</v>
       </c>
-      <c r="Y17" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z17" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="Y17">
+        <v>312</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18">
         <v>1500000006</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="D18" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>72080043</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" t="s">
         <v>50</v>
       </c>
-      <c r="H18" s="0" t="s">
+      <c r="H18" t="s">
         <v>30</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18">
         <v>1500000006</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18">
         <v>555</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18">
         <v>555</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="L18">
         <v>555</v>
       </c>
-      <c r="N18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O18" s="2" t="n">
+      <c r="N18" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="2">
         <v>42010</v>
       </c>
-      <c r="P18" s="2" t="n">
-        <v>42010.3368055556</v>
-      </c>
-      <c r="Q18" s="2" t="n">
+      <c r="P18" s="2">
+        <v>42010.336805555598</v>
+      </c>
+      <c r="Q18" s="2">
         <v>42012</v>
       </c>
-      <c r="R18" s="2" t="n">
+      <c r="R18" s="2">
         <v>42012</v>
       </c>
-      <c r="S18" s="0" t="s">
+      <c r="S18" t="s">
         <v>83</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="T18">
         <v>555</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="U18">
         <v>555</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="V18">
         <v>5429</v>
       </c>
-      <c r="W18" s="0" t="s">
+      <c r="W18" t="s">
         <v>53</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="X18">
         <v>555</v>
       </c>
-      <c r="Y18" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z18" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="Y18">
+        <v>312</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>1500000006</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" t="s">
         <v>84</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="D19" t="s">
         <v>85</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E19">
         <v>16112661</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19">
         <v>20147682</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" t="s">
         <v>29</v>
       </c>
-      <c r="H19" s="0" t="s">
+      <c r="H19" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19">
         <v>20147682</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19">
         <v>7155</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19">
         <v>7155</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="L19">
         <v>7155</v>
       </c>
-      <c r="N19" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O19" s="2" t="n">
+      <c r="N19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="2">
         <v>41991</v>
       </c>
-      <c r="P19" s="2" t="n">
-        <v>42006.6513888889</v>
-      </c>
-      <c r="Q19" s="2" t="n">
+      <c r="P19" s="2">
+        <v>42006.651388888902</v>
+      </c>
+      <c r="Q19" s="2">
         <v>42012</v>
       </c>
-      <c r="R19" s="2" t="n">
+      <c r="R19" s="2">
         <v>42032</v>
       </c>
-      <c r="S19" s="0" t="s">
+      <c r="S19" t="s">
         <v>86</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="T19">
         <v>7155</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="U19">
         <v>7155</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="V19">
         <v>5173</v>
       </c>
-      <c r="W19" s="0" t="s">
+      <c r="W19" t="s">
         <v>87</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="X19">
         <v>7155</v>
       </c>
-      <c r="Y19" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z19" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="Y19">
+        <v>312</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>1500000007</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="D20" t="s">
         <v>49</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>47114983</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="0" t="s">
+      <c r="H20" t="s">
         <v>30</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20">
         <v>54010601</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20">
         <v>102</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20">
         <v>102</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="L20">
         <v>102</v>
       </c>
-      <c r="N20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O20" s="2" t="n">
+      <c r="N20" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="2">
         <v>42010</v>
       </c>
-      <c r="P20" s="2" t="n">
-        <v>42010.6423611111</v>
-      </c>
-      <c r="Q20" s="2" t="n">
+      <c r="P20" s="2">
+        <v>42010.642361111102</v>
+      </c>
+      <c r="Q20" s="2">
         <v>42011</v>
       </c>
-      <c r="R20" s="2" t="n">
+      <c r="R20" s="2">
         <v>42012</v>
       </c>
-      <c r="S20" s="0" t="s">
+      <c r="S20" t="s">
         <v>88</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="T20">
         <v>102</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="U20">
         <v>102</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="V20">
         <v>5161</v>
       </c>
-      <c r="W20" s="0" t="s">
+      <c r="W20" t="s">
         <v>52</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="X20">
         <v>102</v>
       </c>
-      <c r="Y20" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z20" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="Y20">
+        <v>312</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21">
         <v>1500000007</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" t="s">
         <v>89</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>90</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>27142442</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>7201500005</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" t="s">
         <v>29</v>
       </c>
-      <c r="H21" s="0" t="s">
+      <c r="H21" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21">
         <v>7201500005</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21">
         <v>2844</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21">
         <v>2844</v>
       </c>
-      <c r="L21" s="0" t="n">
+      <c r="L21">
         <v>2844</v>
       </c>
-      <c r="N21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O21" s="2" t="n">
+      <c r="N21" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="2">
         <v>42004</v>
       </c>
-      <c r="P21" s="2" t="n">
-        <v>42006.6555555556</v>
-      </c>
-      <c r="Q21" s="2" t="n">
+      <c r="P21" s="2">
+        <v>42006.655555555597</v>
+      </c>
+      <c r="Q21" s="2">
         <v>42030</v>
       </c>
-      <c r="R21" s="2" t="n">
+      <c r="R21" s="2">
         <v>42046</v>
       </c>
-      <c r="S21" s="0" t="s">
+      <c r="S21" t="s">
         <v>91</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="T21">
         <v>2844</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="U21">
         <v>2844</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="V21">
         <v>5168</v>
       </c>
-      <c r="W21" s="0" t="s">
+      <c r="W21" t="s">
         <v>38</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="X21">
         <v>2844</v>
       </c>
-      <c r="Y21" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z21" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="Y21">
+        <v>312</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22">
         <v>1500000008</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>64948242</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" t="s">
         <v>50</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="H22" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22">
         <v>2015</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22">
         <v>1000000</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22">
         <v>1000000</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="L22">
         <v>1000000</v>
       </c>
-      <c r="N22" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O22" s="2" t="n">
+      <c r="N22" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="2">
         <v>42012</v>
       </c>
-      <c r="P22" s="2" t="n">
-        <v>42012.4618055556</v>
-      </c>
-      <c r="Q22" s="2" t="n">
-        <v>42012.4618055556</v>
-      </c>
-      <c r="R22" s="2" t="n">
+      <c r="P22" s="2">
+        <v>42012.461805555598</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>42012.461805555598</v>
+      </c>
+      <c r="R22" s="2">
         <v>42016</v>
       </c>
-      <c r="S22" s="0" t="s">
+      <c r="S22" t="s">
         <v>94</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="T22">
         <v>1000000</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="U22">
         <v>1000000</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="V22">
         <v>5163</v>
       </c>
-      <c r="W22" s="0" t="s">
+      <c r="W22" t="s">
         <v>95</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="X22">
         <v>23035</v>
       </c>
-      <c r="Y22" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z22" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="Y22">
+        <v>312</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23">
         <v>1500000008</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="E23">
         <v>64948242</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" t="s">
         <v>50</v>
       </c>
-      <c r="H23" s="0" t="s">
+      <c r="H23" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23">
         <v>2015</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23">
         <v>1000000</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23">
         <v>1000000</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="L23">
         <v>1000000</v>
       </c>
-      <c r="N23" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O23" s="2" t="n">
+      <c r="N23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="2">
         <v>42012</v>
       </c>
-      <c r="P23" s="2" t="n">
-        <v>42012.4618055556</v>
-      </c>
-      <c r="Q23" s="2" t="n">
-        <v>42012.4618055556</v>
-      </c>
-      <c r="R23" s="2" t="n">
+      <c r="P23" s="2">
+        <v>42012.461805555598</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>42012.461805555598</v>
+      </c>
+      <c r="R23" s="2">
         <v>42016</v>
       </c>
-      <c r="S23" s="0" t="s">
+      <c r="S23" t="s">
         <v>94</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="T23">
         <v>1000000</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="U23">
         <v>1000000</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="V23">
         <v>5169</v>
       </c>
-      <c r="W23" s="0" t="s">
+      <c r="W23" t="s">
         <v>44</v>
       </c>
-      <c r="X23" s="0" t="n">
-        <v>2443.01</v>
-      </c>
-      <c r="Y23" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z23" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="X23">
+        <v>2443.0100000000002</v>
+      </c>
+      <c r="Y23">
+        <v>312</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24">
         <v>1500000008</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" t="s">
         <v>92</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>93</v>
       </c>
-      <c r="E24" s="0" t="n">
+      <c r="E24">
         <v>64948242</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" t="s">
         <v>50</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="H24" t="s">
         <v>30</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24">
         <v>2015</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24">
         <v>1000000</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24">
         <v>1000000</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="L24">
         <v>1000000</v>
       </c>
-      <c r="N24" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O24" s="2" t="n">
+      <c r="N24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="2">
         <v>42012</v>
       </c>
-      <c r="P24" s="2" t="n">
-        <v>42012.4618055556</v>
-      </c>
-      <c r="Q24" s="2" t="n">
-        <v>42012.4618055556</v>
-      </c>
-      <c r="R24" s="2" t="n">
+      <c r="P24" s="2">
+        <v>42012.461805555598</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>42012.461805555598</v>
+      </c>
+      <c r="R24" s="2">
         <v>42016</v>
       </c>
-      <c r="S24" s="0" t="s">
+      <c r="S24" t="s">
         <v>94</v>
       </c>
-      <c r="T24" s="0" t="n">
+      <c r="T24">
         <v>1000000</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="U24">
         <v>1000000</v>
       </c>
-      <c r="V24" s="0" t="n">
+      <c r="V24">
         <v>5173</v>
       </c>
-      <c r="W24" s="0" t="s">
+      <c r="W24" t="s">
         <v>87</v>
       </c>
-      <c r="X24" s="0" t="n">
+      <c r="X24">
         <v>965084.99</v>
       </c>
-      <c r="Y24" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z24" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="Y24">
+        <v>312</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25">
         <v>1500000008</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" t="s">
         <v>92</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="E25">
         <v>64948242</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="H25" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25">
         <v>2015</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25">
         <v>1000000</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25">
         <v>1000000</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="L25">
         <v>1000000</v>
       </c>
-      <c r="N25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O25" s="2" t="n">
+      <c r="N25" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="2">
         <v>42012</v>
       </c>
-      <c r="P25" s="2" t="n">
-        <v>42012.4618055556</v>
-      </c>
-      <c r="Q25" s="2" t="n">
-        <v>42012.4618055556</v>
-      </c>
-      <c r="R25" s="2" t="n">
+      <c r="P25" s="2">
+        <v>42012.461805555598</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>42012.461805555598</v>
+      </c>
+      <c r="R25" s="2">
         <v>42016</v>
       </c>
-      <c r="S25" s="0" t="s">
+      <c r="S25" t="s">
         <v>94</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="T25">
         <v>1000000</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="U25">
         <v>1000000</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="V25">
         <v>5175</v>
       </c>
-      <c r="W25" s="0" t="s">
+      <c r="W25" t="s">
         <v>96</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="X25">
         <v>9437</v>
       </c>
-      <c r="Y25" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z25" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="Y25">
+        <v>312</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="0" t="n">
+      <c r="B26">
         <v>1500000008</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" t="s">
         <v>97</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="0" t="n">
+      <c r="E26">
         <v>61504513</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" t="s">
         <v>99</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="0" t="s">
+      <c r="H26" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26">
         <v>1772014</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26">
         <v>122294.7</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26">
         <v>122294.7</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="L26">
         <v>122294.7</v>
       </c>
-      <c r="N26" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O26" s="2" t="n">
+      <c r="N26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="2">
         <v>41983</v>
       </c>
-      <c r="P26" s="2" t="n">
-        <v>42006.6625</v>
-      </c>
-      <c r="Q26" s="2" t="n">
+      <c r="P26" s="2">
+        <v>42006.662499999999</v>
+      </c>
+      <c r="Q26" s="2">
         <v>42004</v>
       </c>
-      <c r="R26" s="2" t="n">
+      <c r="R26" s="2">
         <v>42068</v>
       </c>
-      <c r="S26" s="0" t="s">
+      <c r="S26" t="s">
         <v>100</v>
       </c>
-      <c r="T26" s="0" t="n">
+      <c r="T26">
         <v>122294.7</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="U26">
         <v>122294.7</v>
       </c>
-      <c r="V26" s="0" t="n">
+      <c r="V26">
         <v>5171</v>
       </c>
-      <c r="W26" s="0" t="s">
+      <c r="W26" t="s">
         <v>101</v>
       </c>
-      <c r="X26" s="0" t="n">
+      <c r="X26">
         <v>122294.7</v>
       </c>
-      <c r="Y26" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z26" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="Y26">
+        <v>312</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="n">
+      <c r="B27">
         <v>1500000009</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" t="s">
         <v>97</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="E27">
         <v>61504513</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>102</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" t="s">
         <v>29</v>
       </c>
-      <c r="H27" s="0" t="s">
+      <c r="H27" t="s">
         <v>30</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27">
         <v>1782014</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27">
         <v>137232.15</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27">
         <v>137232.15</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="L27">
         <v>137232.15</v>
       </c>
-      <c r="N27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O27" s="2" t="n">
+      <c r="N27" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="2">
         <v>41983</v>
       </c>
-      <c r="P27" s="2" t="n">
+      <c r="P27" s="2">
         <v>42006.6652777778</v>
       </c>
-      <c r="Q27" s="2" t="n">
+      <c r="Q27" s="2">
         <v>42004</v>
       </c>
-      <c r="R27" s="2" t="n">
+      <c r="R27" s="2">
         <v>42068</v>
       </c>
-      <c r="S27" s="0" t="s">
+      <c r="S27" t="s">
         <v>103</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="T27">
         <v>137232.15</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="U27">
         <v>137232.15</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="V27">
         <v>5171</v>
       </c>
-      <c r="W27" s="0" t="s">
+      <c r="W27" t="s">
         <v>101</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="X27">
         <v>137232.15</v>
       </c>
-      <c r="Y27" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z27" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="Y27">
+        <v>312</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B28">
         <v>1500000010</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" t="s">
         <v>104</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>105</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" t="s">
         <v>50</v>
       </c>
-      <c r="H28" s="0" t="s">
+      <c r="H28" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28">
         <v>1500000010</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28">
         <v>9168</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K28">
         <v>9168</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="L28">
         <v>9168</v>
       </c>
-      <c r="N28" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O28" s="2" t="n">
+      <c r="N28" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="2">
         <v>42013</v>
       </c>
-      <c r="P28" s="2" t="n">
+      <c r="P28" s="2">
         <v>42013.5847222222</v>
       </c>
-      <c r="Q28" s="2" t="n">
+      <c r="Q28" s="2">
         <v>42017</v>
       </c>
-      <c r="R28" s="2" t="n">
+      <c r="R28" s="2">
         <v>42017</v>
       </c>
-      <c r="S28" s="0" t="s">
+      <c r="S28" t="s">
         <v>106</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="T28">
         <v>9168</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="U28">
         <v>9168</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="V28">
         <v>5429</v>
       </c>
-      <c r="W28" s="0" t="s">
+      <c r="W28" t="s">
         <v>53</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="X28">
         <v>9168</v>
       </c>
-      <c r="Y28" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z28" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="Y28">
+        <v>312</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="0" t="n">
+      <c r="B29">
         <v>1500000010</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" t="s">
         <v>107</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29">
         <v>14889439</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" t="s">
         <v>109</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" t="s">
         <v>29</v>
       </c>
-      <c r="H29" s="0" t="s">
+      <c r="H29" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29">
         <v>1051691</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29">
         <v>7018</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29">
         <v>7018</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="L29">
         <v>7018</v>
       </c>
-      <c r="N29" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O29" s="2" t="n">
+      <c r="N29" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="2">
         <v>41992</v>
       </c>
-      <c r="P29" s="2" t="n">
-        <v>42006.6680555556</v>
-      </c>
-      <c r="Q29" s="2" t="n">
+      <c r="P29" s="2">
+        <v>42006.668055555601</v>
+      </c>
+      <c r="Q29" s="2">
         <v>42022</v>
       </c>
-      <c r="R29" s="2" t="n">
+      <c r="R29" s="2">
         <v>42046</v>
       </c>
-      <c r="S29" s="0" t="s">
+      <c r="S29" t="s">
         <v>110</v>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="T29">
         <v>7018</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="U29">
         <v>7018</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="V29">
         <v>5171</v>
       </c>
-      <c r="W29" s="0" t="s">
+      <c r="W29" t="s">
         <v>101</v>
       </c>
-      <c r="X29" s="0" t="n">
+      <c r="X29">
         <v>7018</v>
       </c>
-      <c r="Y29" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z29" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="Y29">
+        <v>312</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="0" t="n">
+      <c r="B30">
         <v>1500000011</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30">
         <v>29414873</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" t="s">
         <v>50</v>
       </c>
-      <c r="H30" s="0" t="s">
+      <c r="H30" t="s">
         <v>30</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30">
         <v>520428266</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30">
         <v>2862</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30">
         <v>2862</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="L30">
         <v>2862</v>
       </c>
-      <c r="N30" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O30" s="2" t="n">
+      <c r="N30" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="2">
         <v>42013</v>
       </c>
-      <c r="P30" s="2" t="n">
-        <v>42013.5875</v>
-      </c>
-      <c r="Q30" s="2" t="n">
+      <c r="P30" s="2">
+        <v>42013.587500000001</v>
+      </c>
+      <c r="Q30" s="2">
         <v>42017</v>
       </c>
-      <c r="R30" s="2" t="n">
+      <c r="R30" s="2">
         <v>42017</v>
       </c>
-      <c r="S30" s="0" t="s">
+      <c r="S30" t="s">
         <v>113</v>
       </c>
-      <c r="T30" s="0" t="n">
+      <c r="T30">
         <v>2862</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="U30">
         <v>2862</v>
       </c>
-      <c r="V30" s="0" t="n">
+      <c r="V30">
         <v>5429</v>
       </c>
-      <c r="W30" s="0" t="s">
+      <c r="W30" t="s">
         <v>53</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="X30">
         <v>2862</v>
       </c>
-      <c r="Y30" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z30" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="Y30">
+        <v>312</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>47</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31">
         <v>1500000012</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="D31" t="s">
         <v>115</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31">
         <v>27383</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" t="s">
         <v>50</v>
       </c>
-      <c r="H31" s="0" t="s">
+      <c r="H31" t="s">
         <v>30</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31">
         <v>8880115340</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31">
         <v>405</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31">
         <v>405</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31">
         <v>405</v>
       </c>
-      <c r="N31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O31" s="2" t="n">
+      <c r="N31" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" s="2">
         <v>42016</v>
       </c>
-      <c r="P31" s="2" t="n">
-        <v>42016.3402777778</v>
-      </c>
-      <c r="Q31" s="2" t="n">
+      <c r="P31" s="2">
+        <v>42016.340277777803</v>
+      </c>
+      <c r="Q31" s="2">
         <v>42026</v>
       </c>
-      <c r="R31" s="2" t="n">
+      <c r="R31" s="2">
         <v>42020</v>
       </c>
-      <c r="S31" s="0" t="s">
+      <c r="S31" t="s">
         <v>116</v>
       </c>
-      <c r="T31" s="0" t="n">
+      <c r="T31">
         <v>405</v>
       </c>
-      <c r="U31" s="0" t="n">
+      <c r="U31">
         <v>405</v>
       </c>
-      <c r="V31" s="0" t="n">
+      <c r="V31">
         <v>5169</v>
       </c>
-      <c r="W31" s="0" t="s">
+      <c r="W31" t="s">
         <v>44</v>
       </c>
-      <c r="X31" s="0" t="n">
+      <c r="X31">
         <v>405</v>
       </c>
-      <c r="Y31" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z31" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="Y31">
+        <v>312</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32">
         <v>1500000013</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="D32" t="s">
         <v>118</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32">
         <v>63077124</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" t="s">
         <v>119</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="0" t="s">
+      <c r="H32" t="s">
         <v>30</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="I32">
         <v>1400010455</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J32">
         <v>4057479.45</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="K32">
         <v>4057479.45</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="L32">
         <v>4057479.45</v>
       </c>
-      <c r="N32" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="2" t="n">
+      <c r="N32" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="2">
         <v>41990</v>
       </c>
-      <c r="P32" s="2" t="n">
-        <v>42006.6736111111</v>
-      </c>
-      <c r="Q32" s="2" t="n">
+      <c r="P32" s="2">
+        <v>42006.673611111102</v>
+      </c>
+      <c r="Q32" s="2">
         <v>42020</v>
       </c>
-      <c r="R32" s="2" t="n">
+      <c r="R32" s="2">
         <v>42072</v>
       </c>
-      <c r="S32" s="0" t="s">
+      <c r="S32" t="s">
         <v>120</v>
       </c>
-      <c r="T32" s="0" t="n">
+      <c r="T32">
         <v>4057479.45</v>
       </c>
-      <c r="U32" s="0" t="n">
+      <c r="U32">
         <v>4057479.45</v>
       </c>
-      <c r="V32" s="0" t="n">
+      <c r="V32">
         <v>6125</v>
       </c>
-      <c r="W32" s="0" t="s">
+      <c r="W32" t="s">
         <v>121</v>
       </c>
-      <c r="X32" s="0" t="n">
+      <c r="X32">
         <v>4057479.45</v>
       </c>
-      <c r="Y32" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z32" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="Y32">
+        <v>312</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="0" t="n">
+      <c r="B33">
         <v>1500000014</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" t="s">
         <v>122</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="D33" t="s">
         <v>123</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33">
         <v>40764281</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33">
         <v>374143</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" t="s">
         <v>29</v>
       </c>
-      <c r="H33" s="0" t="s">
+      <c r="H33" t="s">
         <v>30</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I33">
         <v>374143</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J33">
         <v>4643</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="K33">
         <v>4643</v>
       </c>
-      <c r="L33" s="0" t="n">
+      <c r="L33">
         <v>4643</v>
       </c>
-      <c r="N33" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O33" s="2" t="n">
+      <c r="N33" t="s">
+        <v>31</v>
+      </c>
+      <c r="O33" s="2">
         <v>41996</v>
       </c>
-      <c r="P33" s="2" t="n">
-        <v>42006.6756944444</v>
-      </c>
-      <c r="Q33" s="2" t="n">
+      <c r="P33" s="2">
+        <v>42006.675694444399</v>
+      </c>
+      <c r="Q33" s="2">
         <v>42017</v>
       </c>
-      <c r="R33" s="2" t="n">
+      <c r="R33" s="2">
         <v>42076</v>
       </c>
-      <c r="S33" s="0" t="s">
+      <c r="S33" t="s">
         <v>124</v>
       </c>
-      <c r="T33" s="0" t="n">
+      <c r="T33">
         <v>4643</v>
       </c>
-      <c r="U33" s="0" t="n">
+      <c r="U33">
         <v>4643</v>
       </c>
-      <c r="V33" s="0" t="n">
+      <c r="V33">
         <v>5171</v>
       </c>
-      <c r="W33" s="0" t="s">
+      <c r="W33" t="s">
         <v>101</v>
       </c>
-      <c r="X33" s="0" t="n">
+      <c r="X33">
         <v>4643</v>
       </c>
-      <c r="Y33" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z33" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="Y33">
+        <v>312</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>26</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="B34">
         <v>1500000015</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" t="s">
         <v>107</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D34" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="0" t="n">
+      <c r="E34">
         <v>14889439</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" t="s">
         <v>125</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="G34" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="0" t="s">
+      <c r="H34" t="s">
         <v>30</v>
       </c>
-      <c r="I34" s="0" t="n">
+      <c r="I34">
         <v>1051700</v>
       </c>
-      <c r="J34" s="0" t="n">
+      <c r="J34">
         <v>6534</v>
       </c>
-      <c r="K34" s="0" t="n">
+      <c r="K34">
         <v>6534</v>
       </c>
-      <c r="L34" s="0" t="n">
+      <c r="L34">
         <v>6534</v>
       </c>
-      <c r="N34" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O34" s="2" t="n">
+      <c r="N34" t="s">
+        <v>31</v>
+      </c>
+      <c r="O34" s="2">
         <v>42003</v>
       </c>
-      <c r="P34" s="2" t="n">
-        <v>42006.6770833333</v>
-      </c>
-      <c r="Q34" s="2" t="n">
+      <c r="P34" s="2">
+        <v>42006.677083333299</v>
+      </c>
+      <c r="Q34" s="2">
         <v>42025</v>
       </c>
-      <c r="R34" s="2" t="n">
+      <c r="R34" s="2">
         <v>42046</v>
       </c>
-      <c r="S34" s="0" t="s">
+      <c r="S34" t="s">
         <v>126</v>
       </c>
-      <c r="T34" s="0" t="n">
+      <c r="T34">
         <v>6534</v>
       </c>
-      <c r="U34" s="0" t="n">
+      <c r="U34">
         <v>6534</v>
       </c>
-      <c r="V34" s="0" t="n">
+      <c r="V34">
         <v>5167</v>
       </c>
-      <c r="W34" s="0" t="s">
+      <c r="W34" t="s">
         <v>127</v>
       </c>
-      <c r="X34" s="0" t="n">
+      <c r="X34">
         <v>6534</v>
       </c>
-      <c r="Y34" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z34" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="Y34">
+        <v>312</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="0" t="n">
+      <c r="B35">
         <v>1500000016</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" t="s">
         <v>128</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="D35" t="s">
         <v>129</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35">
         <v>34550</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" t="s">
         <v>50</v>
       </c>
-      <c r="H35" s="0" t="s">
+      <c r="H35" t="s">
         <v>30</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35">
         <v>3200303703</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J35">
         <v>5218</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="K35">
         <v>5218</v>
       </c>
-      <c r="L35" s="0" t="n">
+      <c r="L35">
         <v>5218</v>
       </c>
-      <c r="N35" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O35" s="2" t="n">
+      <c r="N35" t="s">
+        <v>31</v>
+      </c>
+      <c r="O35" s="2">
         <v>42016</v>
       </c>
-      <c r="P35" s="2" t="n">
-        <v>42016.3979166667</v>
-      </c>
-      <c r="Q35" s="2" t="n">
+      <c r="P35" s="2">
+        <v>42016.397916666698</v>
+      </c>
+      <c r="Q35" s="2">
         <v>42018</v>
       </c>
-      <c r="R35" s="2" t="n">
+      <c r="R35" s="2">
         <v>42020</v>
       </c>
-      <c r="S35" s="0" t="s">
+      <c r="S35" t="s">
         <v>130</v>
       </c>
-      <c r="T35" s="0" t="n">
+      <c r="T35">
         <v>5218</v>
       </c>
-      <c r="U35" s="0" t="n">
+      <c r="U35">
         <v>5218</v>
       </c>
-      <c r="V35" s="0" t="n">
+      <c r="V35">
         <v>5169</v>
       </c>
-      <c r="W35" s="0" t="s">
+      <c r="W35" t="s">
         <v>44</v>
       </c>
-      <c r="X35" s="0" t="n">
+      <c r="X35">
         <v>5218</v>
       </c>
-      <c r="Y35" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z35" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="Y35">
+        <v>312</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="B36">
         <v>1500000016</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" t="s">
         <v>131</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="D36" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="0" t="n">
+      <c r="E36">
         <v>26199599</v>
       </c>
-      <c r="F36" s="0" t="n">
+      <c r="F36">
         <v>14250006</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" t="s">
         <v>29</v>
       </c>
-      <c r="H36" s="0" t="s">
+      <c r="H36" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="0" t="n">
+      <c r="I36">
         <v>14250006</v>
       </c>
-      <c r="J36" s="0" t="n">
+      <c r="J36">
         <v>72600</v>
       </c>
-      <c r="K36" s="0" t="n">
+      <c r="K36">
         <v>72600</v>
       </c>
-      <c r="L36" s="0" t="n">
+      <c r="L36">
         <v>72600</v>
       </c>
-      <c r="N36" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O36" s="2" t="n">
+      <c r="N36" t="s">
+        <v>31</v>
+      </c>
+      <c r="O36" s="2">
         <v>42005</v>
       </c>
-      <c r="P36" s="2" t="n">
-        <v>42006.6791666667</v>
-      </c>
-      <c r="Q36" s="2" t="n">
+      <c r="P36" s="2">
+        <v>42006.679166666698</v>
+      </c>
+      <c r="Q36" s="2">
         <v>42025</v>
       </c>
-      <c r="R36" s="2" t="n">
+      <c r="R36" s="2">
         <v>42068</v>
       </c>
-      <c r="S36" s="0" t="s">
+      <c r="S36" t="s">
         <v>133</v>
       </c>
-      <c r="T36" s="0" t="n">
+      <c r="T36">
         <v>72600</v>
       </c>
-      <c r="U36" s="0" t="n">
+      <c r="U36">
         <v>72600</v>
       </c>
-      <c r="V36" s="0" t="n">
+      <c r="V36">
         <v>5168</v>
       </c>
-      <c r="W36" s="0" t="s">
+      <c r="W36" t="s">
         <v>38</v>
       </c>
-      <c r="X36" s="0" t="n">
+      <c r="X36">
         <v>72600</v>
       </c>
-      <c r="Y36" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z36" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="Y36">
+        <v>312</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="B37">
         <v>1500000017</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" t="s">
         <v>131</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="D37" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="0" t="n">
+      <c r="E37">
         <v>26199599</v>
       </c>
-      <c r="F37" s="0" t="n">
+      <c r="F37">
         <v>14250011</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" t="s">
         <v>29</v>
       </c>
-      <c r="H37" s="0" t="s">
+      <c r="H37" t="s">
         <v>30</v>
       </c>
-      <c r="I37" s="0" t="n">
+      <c r="I37">
         <v>14250011</v>
       </c>
-      <c r="J37" s="0" t="n">
+      <c r="J37">
         <v>338606.4</v>
       </c>
-      <c r="K37" s="0" t="n">
+      <c r="K37">
         <v>338606.4</v>
       </c>
-      <c r="L37" s="0" t="n">
+      <c r="L37">
         <v>338606.4</v>
       </c>
-      <c r="N37" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O37" s="2" t="n">
+      <c r="N37" t="s">
+        <v>31</v>
+      </c>
+      <c r="O37" s="2">
         <v>42005</v>
       </c>
-      <c r="P37" s="2" t="n">
-        <v>42006.6798611111</v>
-      </c>
-      <c r="Q37" s="2" t="n">
+      <c r="P37" s="2">
+        <v>42006.679861111101</v>
+      </c>
+      <c r="Q37" s="2">
         <v>42025</v>
       </c>
-      <c r="R37" s="2" t="n">
+      <c r="R37" s="2">
         <v>42068</v>
       </c>
-      <c r="S37" s="0" t="s">
+      <c r="S37" t="s">
         <v>134</v>
       </c>
-      <c r="T37" s="0" t="n">
+      <c r="T37">
         <v>338606.4</v>
       </c>
-      <c r="U37" s="0" t="n">
+      <c r="U37">
         <v>338606.4</v>
       </c>
-      <c r="V37" s="0" t="n">
+      <c r="V37">
         <v>5168</v>
       </c>
-      <c r="W37" s="0" t="s">
+      <c r="W37" t="s">
         <v>38</v>
       </c>
-      <c r="X37" s="0" t="n">
+      <c r="X37">
         <v>338606.4</v>
       </c>
-      <c r="Y37" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z37" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="Y37">
+        <v>312</v>
+      </c>
+      <c r="Z37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>47</v>
       </c>
-      <c r="B38" s="0" t="n">
+      <c r="B38">
         <v>1500000018</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="D38" t="s">
         <v>136</v>
       </c>
-      <c r="E38" s="0" t="n">
+      <c r="E38">
         <v>26442612</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="G38" t="s">
         <v>50</v>
       </c>
-      <c r="H38" s="0" t="s">
+      <c r="H38" t="s">
         <v>30</v>
       </c>
-      <c r="I38" s="0" t="n">
+      <c r="I38">
         <v>1171800020</v>
       </c>
-      <c r="J38" s="0" t="n">
+      <c r="J38">
         <v>2400</v>
       </c>
-      <c r="K38" s="0" t="n">
+      <c r="K38">
         <v>2400</v>
       </c>
-      <c r="L38" s="0" t="n">
+      <c r="L38">
         <v>2400</v>
       </c>
-      <c r="N38" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O38" s="2" t="n">
+      <c r="N38" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="2">
         <v>42016</v>
       </c>
-      <c r="P38" s="2" t="n">
-        <v>42016.4034722222</v>
-      </c>
-      <c r="Q38" s="2" t="n">
+      <c r="P38" s="2">
+        <v>42016.403472222199</v>
+      </c>
+      <c r="Q38" s="2">
         <v>42018</v>
       </c>
-      <c r="R38" s="2" t="n">
+      <c r="R38" s="2">
         <v>42020</v>
       </c>
-      <c r="S38" s="0" t="s">
+      <c r="S38" t="s">
         <v>137</v>
       </c>
-      <c r="T38" s="0" t="n">
+      <c r="T38">
         <v>2400</v>
       </c>
-      <c r="U38" s="0" t="n">
+      <c r="U38">
         <v>2400</v>
       </c>
-      <c r="V38" s="0" t="n">
+      <c r="V38">
         <v>5169</v>
       </c>
-      <c r="W38" s="0" t="s">
+      <c r="W38" t="s">
         <v>44</v>
       </c>
-      <c r="X38" s="0" t="n">
+      <c r="X38">
         <v>2400</v>
       </c>
-      <c r="Y38" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z38" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="Y38">
+        <v>312</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="B39">
         <v>1500000018</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" t="s">
         <v>131</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="D39" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="0" t="n">
+      <c r="E39">
         <v>26199599</v>
       </c>
-      <c r="F39" s="0" t="n">
+      <c r="F39">
         <v>14250007</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" t="s">
         <v>29</v>
       </c>
-      <c r="H39" s="0" t="s">
+      <c r="H39" t="s">
         <v>30</v>
       </c>
-      <c r="I39" s="0" t="n">
+      <c r="I39">
         <v>14250007</v>
       </c>
-      <c r="J39" s="0" t="n">
+      <c r="J39">
         <v>156816</v>
       </c>
-      <c r="K39" s="0" t="n">
+      <c r="K39">
         <v>156816</v>
       </c>
-      <c r="L39" s="0" t="n">
+      <c r="L39">
         <v>156816</v>
       </c>
-      <c r="N39" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O39" s="2" t="n">
+      <c r="N39" t="s">
+        <v>31</v>
+      </c>
+      <c r="O39" s="2">
         <v>42005</v>
       </c>
-      <c r="P39" s="2" t="n">
-        <v>42006.68125</v>
-      </c>
-      <c r="Q39" s="2" t="n">
+      <c r="P39" s="2">
+        <v>42006.681250000001</v>
+      </c>
+      <c r="Q39" s="2">
         <v>42025</v>
       </c>
-      <c r="R39" s="2" t="n">
+      <c r="R39" s="2">
         <v>42068</v>
       </c>
-      <c r="S39" s="0" t="s">
+      <c r="S39" t="s">
         <v>138</v>
       </c>
-      <c r="T39" s="0" t="n">
+      <c r="T39">
         <v>156816</v>
       </c>
-      <c r="U39" s="0" t="n">
+      <c r="U39">
         <v>156816</v>
       </c>
-      <c r="V39" s="0" t="n">
+      <c r="V39">
         <v>5168</v>
       </c>
-      <c r="W39" s="0" t="s">
+      <c r="W39" t="s">
         <v>38</v>
       </c>
-      <c r="X39" s="0" t="n">
+      <c r="X39">
         <v>156816</v>
       </c>
-      <c r="Y39" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z39" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="Y39">
+        <v>312</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="0" t="n">
+      <c r="B40">
         <v>1500000019</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" t="s">
         <v>139</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="D40" t="s">
         <v>140</v>
       </c>
-      <c r="E40" s="0" t="n">
+      <c r="E40">
         <v>27107566</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="G40" t="s">
         <v>50</v>
       </c>
-      <c r="H40" s="0" t="s">
+      <c r="H40" t="s">
         <v>30</v>
       </c>
-      <c r="I40" s="0" t="n">
+      <c r="I40">
         <v>5121009</v>
       </c>
-      <c r="J40" s="0" t="n">
+      <c r="J40">
         <v>4875</v>
       </c>
-      <c r="K40" s="0" t="n">
+      <c r="K40">
         <v>4875</v>
       </c>
-      <c r="L40" s="0" t="n">
+      <c r="L40">
         <v>4875</v>
       </c>
-      <c r="N40" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O40" s="2" t="n">
+      <c r="N40" t="s">
+        <v>31</v>
+      </c>
+      <c r="O40" s="2">
         <v>42016</v>
       </c>
-      <c r="P40" s="2" t="n">
-        <v>42016.4069444444</v>
-      </c>
-      <c r="Q40" s="2" t="n">
+      <c r="P40" s="2">
+        <v>42016.406944444403</v>
+      </c>
+      <c r="Q40" s="2">
         <v>42018</v>
       </c>
-      <c r="R40" s="2" t="n">
+      <c r="R40" s="2">
         <v>42020</v>
       </c>
-      <c r="S40" s="0" t="s">
+      <c r="S40" t="s">
         <v>141</v>
       </c>
-      <c r="T40" s="0" t="n">
+      <c r="T40">
         <v>4875</v>
       </c>
-      <c r="U40" s="0" t="n">
+      <c r="U40">
         <v>4875</v>
       </c>
-      <c r="V40" s="0" t="n">
+      <c r="V40">
         <v>5169</v>
       </c>
-      <c r="W40" s="0" t="s">
+      <c r="W40" t="s">
         <v>44</v>
       </c>
-      <c r="X40" s="0" t="n">
+      <c r="X40">
         <v>4875</v>
       </c>
-      <c r="Y40" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z40" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="Y40">
+        <v>312</v>
+      </c>
+      <c r="Z40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="0" t="n">
+      <c r="B41">
         <v>1500000019</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D41" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E41">
         <v>88850005</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" t="s">
         <v>144</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" t="s">
         <v>29</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="H41" t="s">
         <v>145</v>
       </c>
-      <c r="I41" s="0" t="n">
+      <c r="I41">
         <v>2014349</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="J41">
         <v>26540</v>
       </c>
-      <c r="K41" s="0" t="n">
+      <c r="K41">
         <v>26540</v>
       </c>
-      <c r="L41" s="0" t="n">
+      <c r="L41">
         <v>26540</v>
       </c>
-      <c r="N41" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O41" s="2" t="n">
+      <c r="N41" t="s">
+        <v>31</v>
+      </c>
+      <c r="O41" s="2">
         <v>42004</v>
       </c>
-      <c r="P41" s="2" t="n">
-        <v>42006.6826388889</v>
-      </c>
-      <c r="Q41" s="2" t="n">
+      <c r="P41" s="2">
+        <v>42006.682638888902</v>
+      </c>
+      <c r="Q41" s="2">
         <v>42025</v>
       </c>
-      <c r="R41" s="2" t="n">
+      <c r="R41" s="2">
         <v>42024</v>
       </c>
-      <c r="S41" s="0" t="s">
+      <c r="S41" t="s">
         <v>146</v>
       </c>
-      <c r="T41" s="0" t="n">
+      <c r="T41">
         <v>26540</v>
       </c>
-      <c r="U41" s="0" t="n">
+      <c r="U41">
         <v>26540</v>
       </c>
-      <c r="V41" s="0" t="n">
+      <c r="V41">
         <v>5171</v>
       </c>
-      <c r="W41" s="0" t="s">
+      <c r="W41" t="s">
         <v>101</v>
       </c>
-      <c r="X41" s="0" t="n">
+      <c r="X41">
         <v>32113.4</v>
       </c>
-      <c r="Y41" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z41" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="Y41">
+        <v>312</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="0" t="n">
+      <c r="B42">
         <v>1500000019</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" t="s">
         <v>142</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="D42" t="s">
         <v>143</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42">
         <v>88850005</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" t="s">
         <v>144</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="G42" t="s">
         <v>29</v>
       </c>
-      <c r="H42" s="0" t="s">
+      <c r="H42" t="s">
         <v>145</v>
       </c>
-      <c r="I42" s="0" t="n">
+      <c r="I42">
         <v>2014349</v>
       </c>
-      <c r="J42" s="0" t="n">
+      <c r="J42">
         <v>26540</v>
       </c>
-      <c r="K42" s="0" t="n">
+      <c r="K42">
         <v>26540</v>
       </c>
-      <c r="L42" s="0" t="n">
+      <c r="L42">
         <v>26540</v>
       </c>
-      <c r="N42" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O42" s="2" t="n">
+      <c r="N42" t="s">
+        <v>31</v>
+      </c>
+      <c r="O42" s="2">
         <v>42004</v>
       </c>
-      <c r="P42" s="2" t="n">
-        <v>42006.6826388889</v>
-      </c>
-      <c r="Q42" s="2" t="n">
+      <c r="P42" s="2">
+        <v>42006.682638888902</v>
+      </c>
+      <c r="Q42" s="2">
         <v>42025</v>
       </c>
-      <c r="R42" s="2" t="n">
+      <c r="R42" s="2">
         <v>42024</v>
       </c>
-      <c r="S42" s="0" t="s">
+      <c r="S42" t="s">
         <v>146</v>
       </c>
-      <c r="T42" s="0" t="n">
+      <c r="T42">
         <v>26540</v>
       </c>
-      <c r="U42" s="0" t="n">
+      <c r="U42">
         <v>26540</v>
       </c>
-      <c r="V42" s="0" t="n">
+      <c r="V42">
         <v>5362</v>
       </c>
-      <c r="W42" s="0" t="s">
+      <c r="W42" t="s">
         <v>147</v>
       </c>
-      <c r="X42" s="0" t="n">
+      <c r="X42">
         <v>-5573.4</v>
       </c>
-      <c r="Y42" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z42" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="Y42">
+        <v>312</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="0" t="n">
+      <c r="B43">
         <v>1500000020</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" t="s">
         <v>148</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="D43" t="s">
         <v>149</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43">
         <v>27628124</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" t="s">
         <v>50</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="H43" t="s">
         <v>30</v>
       </c>
-      <c r="I43" s="0" t="n">
+      <c r="I43">
         <v>271127243</v>
       </c>
-      <c r="J43" s="0" t="n">
+      <c r="J43">
         <v>2283</v>
       </c>
-      <c r="K43" s="0" t="n">
+      <c r="K43">
         <v>2283</v>
       </c>
-      <c r="L43" s="0" t="n">
+      <c r="L43">
         <v>2283</v>
       </c>
-      <c r="N43" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O43" s="2" t="n">
+      <c r="N43" t="s">
+        <v>31</v>
+      </c>
+      <c r="O43" s="2">
         <v>42016</v>
       </c>
-      <c r="P43" s="2" t="n">
-        <v>42016.4104166667</v>
-      </c>
-      <c r="Q43" s="2" t="n">
+      <c r="P43" s="2">
+        <v>42016.410416666702</v>
+      </c>
+      <c r="Q43" s="2">
         <v>42018</v>
       </c>
-      <c r="R43" s="2" t="n">
+      <c r="R43" s="2">
         <v>42020</v>
       </c>
-      <c r="S43" s="0" t="s">
+      <c r="S43" t="s">
         <v>150</v>
       </c>
-      <c r="T43" s="0" t="n">
+      <c r="T43">
         <v>2283</v>
       </c>
-      <c r="U43" s="0" t="n">
+      <c r="U43">
         <v>2283</v>
       </c>
-      <c r="V43" s="0" t="n">
+      <c r="V43">
         <v>5169</v>
       </c>
-      <c r="W43" s="0" t="s">
+      <c r="W43" t="s">
         <v>44</v>
       </c>
-      <c r="X43" s="0" t="n">
+      <c r="X43">
         <v>2283</v>
       </c>
-      <c r="Y43" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z43" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="Y43">
+        <v>312</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="0" t="n">
+      <c r="B44">
         <v>1500000020</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" t="s">
         <v>142</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="D44" t="s">
         <v>143</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44">
         <v>88850005</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" t="s">
         <v>151</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="0" t="s">
+      <c r="H44" t="s">
         <v>145</v>
       </c>
-      <c r="I44" s="0" t="n">
+      <c r="I44">
         <v>2014351</v>
       </c>
-      <c r="J44" s="0" t="n">
+      <c r="J44">
         <v>29630</v>
       </c>
-      <c r="K44" s="0" t="n">
+      <c r="K44">
         <v>29630</v>
       </c>
-      <c r="L44" s="0" t="n">
+      <c r="L44">
         <v>29630</v>
       </c>
-      <c r="N44" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O44" s="2" t="n">
+      <c r="N44" t="s">
+        <v>31</v>
+      </c>
+      <c r="O44" s="2">
         <v>42004</v>
       </c>
-      <c r="P44" s="2" t="n">
-        <v>42006.6826388889</v>
-      </c>
-      <c r="Q44" s="2" t="n">
+      <c r="P44" s="2">
+        <v>42006.682638888902</v>
+      </c>
+      <c r="Q44" s="2">
         <v>42025</v>
       </c>
-      <c r="R44" s="2" t="n">
+      <c r="R44" s="2">
         <v>42023</v>
       </c>
-      <c r="S44" s="0" t="s">
+      <c r="S44" t="s">
         <v>152</v>
       </c>
-      <c r="T44" s="0" t="n">
+      <c r="T44">
         <v>29630</v>
       </c>
-      <c r="U44" s="0" t="n">
+      <c r="U44">
         <v>29630</v>
       </c>
-      <c r="V44" s="0" t="n">
+      <c r="V44">
         <v>5171</v>
       </c>
-      <c r="W44" s="0" t="s">
+      <c r="W44" t="s">
         <v>101</v>
       </c>
-      <c r="X44" s="0" t="n">
-        <v>35852.3</v>
-      </c>
-      <c r="Y44" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z44" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="X44">
+        <v>35852.300000000003</v>
+      </c>
+      <c r="Y44">
+        <v>312</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="0" t="n">
+      <c r="B45">
         <v>1500000020</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" t="s">
         <v>142</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="D45" t="s">
         <v>143</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45">
         <v>88850005</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" t="s">
         <v>151</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="H45" t="s">
         <v>145</v>
       </c>
-      <c r="I45" s="0" t="n">
+      <c r="I45">
         <v>2014351</v>
       </c>
-      <c r="J45" s="0" t="n">
+      <c r="J45">
         <v>29630</v>
       </c>
-      <c r="K45" s="0" t="n">
+      <c r="K45">
         <v>29630</v>
       </c>
-      <c r="L45" s="0" t="n">
+      <c r="L45">
         <v>29630</v>
       </c>
-      <c r="N45" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O45" s="2" t="n">
+      <c r="N45" t="s">
+        <v>31</v>
+      </c>
+      <c r="O45" s="2">
         <v>42004</v>
       </c>
-      <c r="P45" s="2" t="n">
-        <v>42006.6826388889</v>
-      </c>
-      <c r="Q45" s="2" t="n">
+      <c r="P45" s="2">
+        <v>42006.682638888902</v>
+      </c>
+      <c r="Q45" s="2">
         <v>42025</v>
       </c>
-      <c r="R45" s="2" t="n">
+      <c r="R45" s="2">
         <v>42023</v>
       </c>
-      <c r="S45" s="0" t="s">
+      <c r="S45" t="s">
         <v>152</v>
       </c>
-      <c r="T45" s="0" t="n">
+      <c r="T45">
         <v>29630</v>
       </c>
-      <c r="U45" s="0" t="n">
+      <c r="U45">
         <v>29630</v>
       </c>
-      <c r="V45" s="0" t="n">
+      <c r="V45">
         <v>5362</v>
       </c>
-      <c r="W45" s="0" t="s">
+      <c r="W45" t="s">
         <v>147</v>
       </c>
-      <c r="X45" s="0" t="n">
+      <c r="X45">
         <v>-6222.3</v>
       </c>
-      <c r="Y45" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z45" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="Y45">
+        <v>312</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="0" t="n">
+      <c r="B46">
         <v>1500000021</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" t="s">
         <v>153</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="D46" t="s">
         <v>154</v>
       </c>
-      <c r="E46" s="0" t="n">
+      <c r="E46">
         <v>28515641</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="G46" t="s">
         <v>50</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="H46" t="s">
         <v>30</v>
       </c>
-      <c r="I46" s="0" t="n">
+      <c r="I46">
         <v>17420032</v>
       </c>
-      <c r="J46" s="0" t="n">
+      <c r="J46">
         <v>1522</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="K46">
         <v>1522</v>
       </c>
-      <c r="L46" s="0" t="n">
+      <c r="L46">
         <v>1522</v>
       </c>
-      <c r="N46" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O46" s="2" t="n">
+      <c r="N46" t="s">
+        <v>31</v>
+      </c>
+      <c r="O46" s="2">
         <v>42016</v>
       </c>
-      <c r="P46" s="2" t="n">
-        <v>42016.4138888889</v>
-      </c>
-      <c r="Q46" s="2" t="n">
+      <c r="P46" s="2">
+        <v>42016.413888888899</v>
+      </c>
+      <c r="Q46" s="2">
         <v>42018</v>
       </c>
-      <c r="R46" s="2" t="n">
+      <c r="R46" s="2">
         <v>42020</v>
       </c>
-      <c r="S46" s="0" t="s">
+      <c r="S46" t="s">
         <v>155</v>
       </c>
-      <c r="T46" s="0" t="n">
+      <c r="T46">
         <v>1522</v>
       </c>
-      <c r="U46" s="0" t="n">
+      <c r="U46">
         <v>1522</v>
       </c>
-      <c r="V46" s="0" t="n">
+      <c r="V46">
         <v>5169</v>
       </c>
-      <c r="W46" s="0" t="s">
+      <c r="W46" t="s">
         <v>44</v>
       </c>
-      <c r="X46" s="0" t="n">
+      <c r="X46">
         <v>1522</v>
       </c>
-      <c r="Y46" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z46" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="Y46">
+        <v>312</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="0" t="n">
+      <c r="B47">
         <v>1500000021</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" t="s">
         <v>142</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="D47" t="s">
         <v>143</v>
       </c>
-      <c r="E47" s="0" t="n">
+      <c r="E47">
         <v>88850005</v>
       </c>
-      <c r="F47" s="0" t="s">
+      <c r="F47" t="s">
         <v>156</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" t="s">
         <v>29</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="H47" t="s">
         <v>145</v>
       </c>
-      <c r="I47" s="0" t="n">
+      <c r="I47">
         <v>2014350</v>
       </c>
-      <c r="J47" s="0" t="n">
+      <c r="J47">
         <v>5000</v>
       </c>
-      <c r="K47" s="0" t="n">
+      <c r="K47">
         <v>5000</v>
       </c>
-      <c r="L47" s="0" t="n">
+      <c r="L47">
         <v>5000</v>
       </c>
-      <c r="N47" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O47" s="2" t="n">
+      <c r="N47" t="s">
+        <v>31</v>
+      </c>
+      <c r="O47" s="2">
         <v>42004</v>
       </c>
-      <c r="P47" s="2" t="n">
-        <v>42006.6826388889</v>
-      </c>
-      <c r="Q47" s="2" t="n">
+      <c r="P47" s="2">
+        <v>42006.682638888902</v>
+      </c>
+      <c r="Q47" s="2">
         <v>42025</v>
       </c>
-      <c r="R47" s="2" t="n">
+      <c r="R47" s="2">
         <v>42024</v>
       </c>
-      <c r="S47" s="0" t="s">
+      <c r="S47" t="s">
         <v>157</v>
       </c>
-      <c r="T47" s="0" t="n">
+      <c r="T47">
         <v>5000</v>
       </c>
-      <c r="U47" s="0" t="n">
+      <c r="U47">
         <v>5000</v>
       </c>
-      <c r="V47" s="0" t="n">
+      <c r="V47">
         <v>5171</v>
       </c>
-      <c r="W47" s="0" t="s">
+      <c r="W47" t="s">
         <v>101</v>
       </c>
-      <c r="X47" s="0" t="n">
+      <c r="X47">
         <v>6050</v>
       </c>
-      <c r="Y47" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z47" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="Y47">
+        <v>312</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="0" t="n">
+      <c r="B48">
         <v>1500000021</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" t="s">
         <v>142</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="D48" t="s">
         <v>143</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48">
         <v>88850005</v>
       </c>
-      <c r="F48" s="0" t="s">
+      <c r="F48" t="s">
         <v>156</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="0" t="s">
+      <c r="H48" t="s">
         <v>145</v>
       </c>
-      <c r="I48" s="0" t="n">
+      <c r="I48">
         <v>2014350</v>
       </c>
-      <c r="J48" s="0" t="n">
+      <c r="J48">
         <v>5000</v>
       </c>
-      <c r="K48" s="0" t="n">
+      <c r="K48">
         <v>5000</v>
       </c>
-      <c r="L48" s="0" t="n">
+      <c r="L48">
         <v>5000</v>
       </c>
-      <c r="N48" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O48" s="2" t="n">
+      <c r="N48" t="s">
+        <v>31</v>
+      </c>
+      <c r="O48" s="2">
         <v>42004</v>
       </c>
-      <c r="P48" s="2" t="n">
-        <v>42006.6826388889</v>
-      </c>
-      <c r="Q48" s="2" t="n">
+      <c r="P48" s="2">
+        <v>42006.682638888902</v>
+      </c>
+      <c r="Q48" s="2">
         <v>42025</v>
       </c>
-      <c r="R48" s="2" t="n">
+      <c r="R48" s="2">
         <v>42024</v>
       </c>
-      <c r="S48" s="0" t="s">
+      <c r="S48" t="s">
         <v>157</v>
       </c>
-      <c r="T48" s="0" t="n">
+      <c r="T48">
         <v>5000</v>
       </c>
-      <c r="U48" s="0" t="n">
+      <c r="U48">
         <v>5000</v>
       </c>
-      <c r="V48" s="0" t="n">
+      <c r="V48">
         <v>5362</v>
       </c>
-      <c r="W48" s="0" t="s">
+      <c r="W48" t="s">
         <v>147</v>
       </c>
-      <c r="X48" s="0" t="n">
+      <c r="X48">
         <v>-1050</v>
       </c>
-      <c r="Y48" s="0" t="n">
-        <v>312</v>
-      </c>
-      <c r="Z48" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="Y48">
+        <v>312</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:Z48">
     <filterColumn colId="0">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Přijaté faktury"/>
-      </customFilters>
+      <filters>
+        <filter val="Přijaté faktury"/>
+      </filters>
     </filterColumn>
   </autoFilter>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>